--- a/Ajay_Kumar_Report.xlsx
+++ b/Ajay_Kumar_Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Description " sheetId="2" r:id="rId1"/>
@@ -267,21 +267,7 @@
     <t>Clear text Password over HTTP</t>
   </si>
   <si>
-    <t>when the packets are in tercepted  using burp suite the data in packets are sent in plain text.</t>
-  </si>
-  <si>
     <t>·       Detected a form that can cause a password submission over an insecure channel.  • This could result in disclosure of passwords to network eavesdroppers.</t>
-  </si>
-  <si>
-    <t>Passwords should never be sent over cleartext. The form should submit to an HTTPS target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The test team  observed that vulnerable version of softwares are in use.  In this scenario,  it was observed that the following versions of vulnerable software are in use by the application.
- Microsoft IIS 8.0
-For more details please refer the following link:
-https://www.cvedetails.com/vulnerability-list/vendor_id-26/product_id-3436/Microsoft-IIS.html
-</t>
   </si>
   <si>
     <t>SQL Injection</t>
@@ -301,20 +287,6 @@
   </si>
   <si>
     <t>Cross-site scripting</t>
-  </si>
-  <si>
-    <t>We obvserved that the attacker can inject a piece of code to  execute malicious SQL statements (also commonly referred to as a malicious payload) that control a web application’s database server (also commonly referred to as a Relational Database Management System – RDBMS).</t>
-  </si>
-  <si>
-    <t>We observerd that the attacker inject malicious script to expose sensitive information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• XSS is generally a threat to web applications which have authenticated users or are otherwise security sensitive. 
-• Malicious code may be able to manipulate the content of the site, changing its appearance and/or function for another user. 
-• This includes modifying the behaviour of the web application (such as redirecting forms, etc). 
-• The code may also be able to perform actions within the application without user knowledge. 
-• Script code can also obtain and retransmit cookie values if they haven't been set HttpOnly.
-</t>
   </si>
   <si>
     <t xml:space="preserve">• The developer must identify how the untrustworthy data is being output to the client without adequate filtering. 
@@ -390,6 +362,34 @@
   </si>
   <si>
     <t>We observed that the  application is not properly configured and the default credentials provided for initial authentication and configuration are never changed. These default credentials are well known by penetration testers and, unfortunately, also by malicious attackers, who can use them to gain access to various types of applications. Here its Username: Admin Pasword:Admin</t>
+  </si>
+  <si>
+    <t>when the packets are in intercepted  using burp suite the data in packets are sent in plain text.</t>
+  </si>
+  <si>
+    <t>Passwords should never be sent over clear text. The form should submit to an HTTPS target.</t>
+  </si>
+  <si>
+    <t>We observed that the attacker can inject a piece of code to  execute malicious SQL statements (also commonly referred to as a malicious payload) that control a web application’s database server (also commonly referred to as a Relational Database Management System – RDBMS).</t>
+  </si>
+  <si>
+    <t>We observed that the attacker inject malicious script to expose sensitive information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• XSS is generally a threat to web applications which have authenticated users or are otherwise security sensitive. 
+• Malicious code may be able to manipulate the content of the site, changing its appearance and/or function for another user. 
+• This includes modifying the behaviour of the web application (such as redirecting forms, etc.). 
+• The code may also be able to perform actions within the application without user knowledge. 
+• Script code can also obtain and retransmit cookie values if they haven't been set HttpOnly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The test team  observed that vulnerable version of soft wares are in use.  In this scenario,  it was observed that the following versions of vulnerable software are in use by the application.
+ Microsoft IIS 8.0
+For more details please refer the following link:
+https://www.cvedetails.com/vulnerability-list/vendor_id-26/product_id-3436/Microsoft-IIS.html
+</t>
   </si>
 </sst>
 </file>
@@ -924,6 +924,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,130 +992,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8496B0"/>
-          <bgColor rgb="FF8496B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CC00"/>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8496B0"/>
-          <bgColor rgb="FF8496B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CC00"/>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1858,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2025,540 +1961,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="30">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="31"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="57"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="32"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="30">
+      <c r="A6" s="49">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="54"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="31"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="32"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="60"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="30">
+      <c r="A9" s="49">
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="31"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="32"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="60"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="30">
+      <c r="A12" s="49">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="31"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="32"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="60"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="30">
+      <c r="A15" s="49">
         <v>5</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="54"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="31"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="32"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="60"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="30">
+      <c r="A18" s="49">
         <v>6</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="31"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="32"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="60"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A21" s="30">
+      <c r="A21" s="49">
         <v>7</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="38"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="57"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="60"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:20" ht="15.75" customHeight="1"/>
@@ -2639,6 +2575,13 @@
     <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:T11"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:T5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:T8"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:T23"/>
     <mergeCell ref="B12:T14"/>
@@ -2647,13 +2590,6 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:T20"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:T11"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:T5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:T8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2664,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F16" sqref="A8:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2682,10 +2618,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2701,8 +2637,8 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
@@ -2718,8 +2654,8 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
@@ -2735,8 +2671,8 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
@@ -2752,8 +2688,8 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
@@ -2769,8 +2705,8 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2787,14 +2723,14 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2832,20 +2768,20 @@
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>60</v>
+      <c r="F9" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
@@ -2857,20 +2793,20 @@
       <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="57" t="s">
+      <c r="B10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="55" t="s">
-        <v>73</v>
+      <c r="F10" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
@@ -2882,20 +2818,20 @@
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="57" t="s">
+      <c r="B11" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="56" t="s">
-        <v>64</v>
+      <c r="F11" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="26"/>
@@ -2907,20 +2843,20 @@
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="57" t="s">
+      <c r="B12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>69</v>
+      <c r="F12" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="27"/>
@@ -2932,19 +2868,19 @@
       <c r="A13" s="24">
         <v>5</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="37" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="24"/>
@@ -2957,19 +2893,19 @@
       <c r="A14" s="21">
         <v>6</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="56" t="s">
+      <c r="C14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="21"/>
@@ -2982,19 +2918,19 @@
       <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="37" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="24"/>
@@ -3009,20 +2945,20 @@
       <c r="A16" s="21">
         <v>8</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="56" t="s">
-        <v>70</v>
+      <c r="F16" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="26"/>
@@ -3034,20 +2970,20 @@
       <c r="A17" s="24">
         <v>9</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="58" t="s">
-        <v>75</v>
+      <c r="F17" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="28" t="s">
@@ -3061,19 +2997,19 @@
       <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="37" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="24"/>
@@ -3086,19 +3022,19 @@
       <c r="A19" s="24">
         <v>11</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="37" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="24"/>
@@ -4101,62 +4037,62 @@
     <mergeCell ref="A7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH(("Low"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH(("High"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Informational">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Informational">
       <formula>NOT(ISERROR(SEARCH(("Informational"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH(("Low"),(E17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH(("High"),(E17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Informational">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Informational">
       <formula>NOT(ISERROR(SEARCH(("Informational"),(E17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH(("Low"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH(("High"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Informational">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Informational">
       <formula>NOT(ISERROR(SEARCH(("Informational"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
